--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150622.51843663</v>
+        <v>3148370.438725423</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482921</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>117.0859349823499</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>292.3520130340203</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>173.4093838830476</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>275.5422451161522</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380461</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>21.90286287505461</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242269</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289883</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>50.06209150957563</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.50962791956</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1809.0259268942</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1809.0259268942</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1809.0259268942</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1554.341438688313</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1554.341438688313</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1326.351887790296</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.559308646766</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.40402049088</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1095.40402049088</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>684.4181157012729</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4820,7 +4820,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102164</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,28 +5522,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797183</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>118.3918499711693</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440089</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>13.30196929556016</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>98.55338150863673</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
@@ -26338,22 +26338,22 @@
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,28 +26418,28 @@
         <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184281</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184277</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26451,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-811060.980540932</v>
       </c>
       <c r="C6" t="n">
-        <v>517683.7651866608</v>
+        <v>517683.7651866606</v>
       </c>
       <c r="D6" t="n">
-        <v>517683.7651866607</v>
+        <v>517683.7651866605</v>
       </c>
       <c r="E6" t="n">
-        <v>266111.4749856507</v>
+        <v>266076.7370602145</v>
       </c>
       <c r="F6" t="n">
-        <v>591523.9367930056</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="G6" t="n">
-        <v>591523.9367930054</v>
+        <v>591489.1988675697</v>
       </c>
       <c r="H6" t="n">
-        <v>591523.9367930058</v>
+        <v>591489.1988675697</v>
       </c>
       <c r="I6" t="n">
-        <v>591523.9367930057</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="J6" t="n">
-        <v>373992.7343957283</v>
+        <v>373957.9964702925</v>
       </c>
       <c r="K6" t="n">
-        <v>591523.9367930058</v>
+        <v>591489.1988675698</v>
       </c>
       <c r="L6" t="n">
-        <v>591523.9367930056</v>
+        <v>591489.19886757</v>
       </c>
       <c r="M6" t="n">
-        <v>506468.908857494</v>
+        <v>506434.170932058</v>
       </c>
       <c r="N6" t="n">
-        <v>591523.9367930058</v>
+        <v>591489.19886757</v>
       </c>
       <c r="O6" t="n">
-        <v>591523.9367930054</v>
+        <v>591489.1988675704</v>
       </c>
       <c r="P6" t="n">
-        <v>591523.9367930054</v>
+        <v>591489.19886757</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -26796,22 +26796,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>72.68309034909204</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>77.37908764444876</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>52.30027150598951</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>135.3794805373013</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276456</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>24.78568136090759</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.699553768877651e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.484429307644118e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162553</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067238</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146268</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317852</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
